--- a/图书借阅系统/功能模块、数据库.xlsx
+++ b/图书借阅系统/功能模块、数据库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenrui/Project/ProjectDocuments/图书借阅系统/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenrui/Project/2202A/documents/图书借阅系统/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60CEB5-F276-0842-8CE0-F706C6B659CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDCCEE-CD2F-4A49-8DB5-1693B219A4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{6C7034FB-8771-844A-A6A5-4532E82FD097}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12960" activeTab="1" xr2:uid="{6C7034FB-8771-844A-A6A5-4532E82FD097}"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -32,97 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{F4619306-E99A-DC49-AC94-7B34243F7881}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>系统管理员</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>图书管理员</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>学生</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
   <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图书信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +76,6 @@
   </si>
   <si>
     <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借阅表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图书分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类目id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +226,310 @@
   </si>
   <si>
     <t>二级类目id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>Is Null</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
+    <t>int(1)</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>默认：0</t>
+  </si>
+  <si>
+    <t>0:未删除</t>
+  </si>
+  <si>
+    <t>1:已删除</t>
+  </si>
+  <si>
+    <t>user用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：图书管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student学生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:男
+2:女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book图书信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstMenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondMenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目表类目id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际标准书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu图书分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow借阅表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借书时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还书时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:借阅中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:未借阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,17 +554,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -417,13 +604,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +755,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +1136,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -768,13 +1148,13 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -782,13 +1162,13 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -796,10 +1176,10 @@
     </row>
     <row r="4" spans="2:7" ht="51">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -808,85 +1188,85 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -902,145 +1282,956 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F99D20-9D30-6945-BC8B-8939361A59E4}">
-  <dimension ref="B2:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F99D20-9D30-6945-BC8B-8939361A59E4}">
+  <dimension ref="B1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="223" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
+    <row r="1" spans="2:6" ht="17" thickBot="1"/>
+    <row r="2" spans="2:6" ht="17" thickBot="1">
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" ht="17" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17" thickBot="1">
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17" thickBot="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" thickBot="1">
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17" thickBot="1"/>
+    <row r="14" spans="2:6" ht="17" thickBot="1">
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" ht="17" thickBot="1">
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17" thickBot="1">
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" thickBot="1">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17" thickBot="1">
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" thickBot="1">
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" thickBot="1">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17" thickBot="1">
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17" thickBot="1">
+      <c r="B23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17" thickBot="1">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17" thickBot="1"/>
+    <row r="28" spans="2:6" ht="17" thickBot="1">
+      <c r="B28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:6" ht="17" thickBot="1">
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17" thickBot="1">
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17" thickBot="1">
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="17" thickBot="1">
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17" thickBot="1">
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" thickBot="1">
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" thickBot="1">
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" thickBot="1">
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="37" spans="2:6" ht="17" thickBot="1">
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="17" thickBot="1">
+      <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17" thickBot="1">
+      <c r="B39" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="17" thickBot="1">
+      <c r="B40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="13"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="17" thickBot="1">
+      <c r="B43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17" thickBot="1"/>
+    <row r="45" spans="2:6" ht="17" thickBot="1">
+      <c r="B45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="2:6" ht="17" thickBot="1">
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="47" spans="2:6" ht="17" thickBot="1">
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="17" thickBot="1">
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="17" thickBot="1">
+      <c r="B49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="17" thickBot="1">
+      <c r="B50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="13"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="17" thickBot="1">
+      <c r="B53" s="15"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="17" thickBot="1"/>
+    <row r="55" spans="2:6" ht="17" thickBot="1">
+      <c r="B55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" ht="17" thickBot="1">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="17" thickBot="1">
+      <c r="B57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="17" thickBot="1">
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="17" thickBot="1">
+      <c r="B59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="17" thickBot="1">
+      <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C60" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="17" thickBot="1">
+      <c r="B61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
+      <c r="C62" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="17" thickBot="1">
+      <c r="B63" s="13"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="13"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="17" thickBot="1">
+      <c r="B66" s="15"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/图书借阅系统/功能模块、数据库.xlsx
+++ b/图书借阅系统/功能模块、数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenrui/Project/2202A/documents/图书借阅系统/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDCCEE-CD2F-4A49-8DB5-1693B219A4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C8C5C-AC59-1B4C-B778-EDC60474CED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12960" activeTab="1" xr2:uid="{6C7034FB-8771-844A-A6A5-4532E82FD097}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13260" xr2:uid="{6C7034FB-8771-844A-A6A5-4532E82FD097}"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
   <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3:学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>student学生表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +526,38 @@
   </si>
   <si>
     <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +799,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -780,44 +850,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,148 +1170,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A6F97B-B385-2443-B324-2F46EB735C31}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="51">
-      <c r="B4" s="1" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" ht="51">
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:8" ht="17">
+      <c r="B7" s="27"/>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="27"/>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:G2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F99D20-9D30-6945-BC8B-8939361A59E4}">
   <dimension ref="B1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="223" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" zoomScale="186" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1299,13 +1358,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1"/>
     <row r="2" spans="2:6" ht="17" thickBot="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:6" ht="17" thickBot="1">
       <c r="B3" s="5" t="s">
@@ -1338,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17" thickBot="1">
@@ -1346,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
@@ -1363,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>68</v>
@@ -1376,88 +1435,88 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17" thickBot="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="16" t="s">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1">
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>123</v>
+      <c r="E10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23" t="s">
-        <v>65</v>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17" thickBot="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="24" t="s">
-        <v>66</v>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17" thickBot="1"/>
     <row r="14" spans="2:6" ht="17" thickBot="1">
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:6" ht="17" thickBot="1">
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>53</v>
@@ -1494,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
@@ -1511,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>68</v>
@@ -1525,10 +1584,10 @@
     </row>
     <row r="19" spans="2:6" ht="17" thickBot="1">
       <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>68</v>
@@ -1536,8 +1595,8 @@
       <c r="E19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>81</v>
+      <c r="F19" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" thickBot="1">
@@ -1545,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="17" thickBot="1">
@@ -1562,15 +1621,15 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1579,83 +1638,83 @@
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17" thickBot="1">
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="17" thickBot="1">
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="20" t="s">
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="13"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="23" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="17" thickBot="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="24" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="17" thickBot="1"/>
     <row r="28" spans="2:6" ht="17" thickBot="1">
-      <c r="B28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" ht="17" thickBot="1">
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -1692,16 +1751,16 @@
         <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17" thickBot="1">
@@ -1709,16 +1768,16 @@
         <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17" thickBot="1">
@@ -1726,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>71</v>
@@ -1734,7 +1793,7 @@
       <c r="E33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1743,10 +1802,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>58</v>
@@ -1760,16 +1819,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>101</v>
+      <c r="F35" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17" thickBot="1">
@@ -1777,15 +1836,15 @@
         <v>10</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1794,15 +1853,15 @@
         <v>9</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1811,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>71</v>
@@ -1819,92 +1878,92 @@
       <c r="E38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17" thickBot="1">
+      <c r="B39" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="17" thickBot="1">
-      <c r="B39" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="21" t="s">
+    </row>
+    <row r="40" spans="2:6" ht="17" thickBot="1">
+      <c r="B40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="17" thickBot="1">
-      <c r="B40" s="19" t="s">
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="13"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="23" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17" thickBot="1">
-      <c r="B43" s="15"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="24" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17" thickBot="1"/>
     <row r="45" spans="2:6" ht="17" thickBot="1">
-      <c r="B45" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
+      <c r="B45" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6" ht="17" thickBot="1">
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>53</v>
@@ -1941,10 +2000,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>58</v>
@@ -1958,11 +2017,9 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
         <v>69</v>
       </c>
@@ -1975,7 +2032,7 @@
         <v>44</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>68</v>
@@ -1983,58 +2040,58 @@
       <c r="E50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>116</v>
+      <c r="F50" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="22" t="s">
+      <c r="E51" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="13"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="23" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="17" thickBot="1">
-      <c r="B53" s="15"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="24" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="17" thickBot="1"/>
     <row r="55" spans="2:6" ht="17" thickBot="1">
-      <c r="B55" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="2:6" ht="17" thickBot="1">
       <c r="B56" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>53</v>
@@ -2071,7 +2128,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>51</v>
@@ -2079,7 +2136,7 @@
       <c r="E58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2088,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>51</v>
@@ -2096,7 +2153,7 @@
       <c r="E59" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2105,16 +2162,16 @@
         <v>13</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="21" t="s">
-        <v>120</v>
+      <c r="F60" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="17" thickBot="1">
@@ -2122,94 +2179,91 @@
         <v>14</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E61" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>125</v>
+      <c r="D62" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="17" thickBot="1">
-      <c r="B63" s="13"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="23" t="s">
-        <v>124</v>
+      <c r="B63" s="19"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="16" t="s">
+      <c r="C64" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="E64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="13"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="23" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="17" thickBot="1">
-      <c r="B66" s="15"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="24" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="15" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -2220,16 +2274,19 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
